--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_33.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1953751.52975203</v>
+        <v>2005452.92056066</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484444</v>
+        <v>278692.0725916859</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5864718.550456031</v>
+        <v>5937302.278106514</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>246.2080096357693</v>
+        <v>308.3086748172354</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
         <v>128.8768572327044</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>33.79395324790814</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>8.129390960577833</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>191.8736142533873</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -905,7 +905,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>309.860855332061</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1054,22 +1054,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>67.81532101975033</v>
       </c>
       <c r="F7" t="n">
-        <v>51.9658786353608</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1145,7 +1145,7 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>129.4758400432336</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1199,7 +1199,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>113.6180270793163</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>163.293878347428</v>
+        <v>146.3752975271659</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1370,10 +1370,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>166.1625368329214</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>31.24391673888174</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>2.292363805516792</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>129.7853418074789</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>56.95997704284492</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>93.33789293904182</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>253.5681788416234</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2065,10 +2065,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>81.01098805494593</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112161</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800047</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2950,7 +2950,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>10.04027365719992</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3035,7 +3035,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3433,16 +3433,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>111.5098183264943</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>161.4887027346009</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3676,7 +3676,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>18.05677735225728</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3752,13 +3752,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>211.478528293011</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3904,19 +3904,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>28.46824604904467</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>73.0151467619386</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3992,10 +3992,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>101.4556968337272</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>100.7890476991254</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4147,10 +4147,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>158.8032091955081</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>949.0361114536327</v>
+        <v>153.4764845146214</v>
       </c>
       <c r="C2" t="n">
-        <v>914.93404267746</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
-        <v>486.3523684147282</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
         <v>57.77069415199655</v>
@@ -4331,19 +4331,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4358,22 +4358,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1217.893900270473</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1217.893900270473</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1217.07884972191</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X2" t="n">
-        <v>1201.976790341625</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y2" t="n">
-        <v>1197.731070681682</v>
+        <v>464.8993883704147</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>885.9154747824084</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C4" t="n">
         <v>851.7801684713901</v>
@@ -4516,22 +4516,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W4" t="n">
-        <v>885.9154747824084</v>
+        <v>1688.971924059632</v>
       </c>
       <c r="X4" t="n">
-        <v>885.9154747824084</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="Y4" t="n">
-        <v>885.9154747824084</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.640221925911</v>
+        <v>169.9652025024901</v>
       </c>
       <c r="C5" t="n">
-        <v>408.5381531497384</v>
+        <v>135.8631337263174</v>
       </c>
       <c r="D5" t="n">
-        <v>376.668772364587</v>
+        <v>103.993752941166</v>
       </c>
       <c r="E5" t="n">
-        <v>346.9344315632862</v>
+        <v>74.25941213986525</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>437.0247332457074</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>437.0247332457074</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="M5" t="n">
-        <v>437.0247332457074</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="N5" t="n">
-        <v>437.0247332457074</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1733.888642131951</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1975.120543515257</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2217.900228530727</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1958.677925847744</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1596.060975781571</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1191.205521192604</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>772.0630577719147</v>
       </c>
       <c r="Y5" t="n">
-        <v>464.8993883704147</v>
+        <v>363.7769340715681</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>422.0704516497129</v>
+        <v>773.6949256906678</v>
       </c>
       <c r="C7" t="n">
-        <v>422.0704516497129</v>
+        <v>601.1332141738927</v>
       </c>
       <c r="D7" t="n">
-        <v>256.1924588512355</v>
+        <v>601.1332141738927</v>
       </c>
       <c r="E7" t="n">
-        <v>86.43445510197279</v>
+        <v>532.6328899115186</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>355.9258358732749</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>190.3345608991025</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>308.7021231727439</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>2275.739883052307</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>1997.306882305412</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>1710.351374175843</v>
       </c>
       <c r="W7" t="n">
-        <v>613.8890703687</v>
+        <v>1438.324969762134</v>
       </c>
       <c r="X7" t="n">
-        <v>613.8890703687</v>
+        <v>1192.933215095547</v>
       </c>
       <c r="Y7" t="n">
-        <v>613.8890703687</v>
+        <v>965.513544409655</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>707.7581132933927</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>269.6156404768161</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>237.7462596916646</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>208.0119188903639</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>184.1848933399757</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="O8" t="n">
-        <v>1294.102365436318</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1477.116202953456</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1477.116202953456</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1114.499252887282</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W8" t="n">
-        <v>709.6437982983157</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X8" t="n">
-        <v>290.5013348776264</v>
+        <v>1542.343807478647</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>1134.057683778301</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168568</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111519</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940406</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510713</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302703</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112635</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429652</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363478</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774511</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653475</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.2298140987277</v>
+        <v>1017.756527079655</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412714</v>
+        <v>845.1948155628801</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111519</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460367</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.841770713472</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.886262583903</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.859858170194</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.468103503607</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>998.0484328177149</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168568</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>1814.514395351991</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1378.604610526435</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>944.8298656847305</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>516.9624360939383</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111519</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2481.810506693463</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693463</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263769</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097165</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112635</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429652</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363478</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774511</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353822</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653475</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>688.2599112544806</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1642.802960065584</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1642.802960065584</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1642.802960065584</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1642.802960065584</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1642.802960065584</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.2298140987275</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>748.6944837524195</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>748.6944837524195</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>578.9364800031568</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>402.229425964913</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>236.6381509907407</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111519</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881912</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503606</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177147</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.025455181362</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>1906.882982364785</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1650.753508787388</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1216.978763945683</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.1113343548909</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7135029781548</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>98.58334842137108</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1329.965062700342</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2405.025028953201</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2405.025028953201</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>2405.025028953201</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523508</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356903</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315498</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068554</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252391</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.44832012543</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442446</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376273</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787306</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366617</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.32502566627</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493061</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958594</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228131</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389747</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.205346548041</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1177.641509033253</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1005.079797516477</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>839.2018047180001</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>669.4438009687374</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>492.7367469304936</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>327.1454719563212</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466957</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2693.825137029543</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2534.583768327539</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2288.704321905994</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2010.271321159099</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.31581302953</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1451.289408615821</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1451.289408615821</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1369.46012775224</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
         <v>267.852115244952</v>
@@ -5908,13 +5908,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
         <v>1341.292728955479</v>
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
         <v>267.852115244952</v>
@@ -6157,7 +6157,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
         <v>2203.220781338905</v>
@@ -6406,7 +6406,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
         <v>2700.681281130895</v>
@@ -6418,7 +6418,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
         <v>1617.386921419177</v>
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937639</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>790.3368563937639</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>624.4588635952866</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>454.7008598460239</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>277.9938058077802</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>112.4025308336078</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>112.4025308336078</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.155475112751</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,43 +6707,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6926,10 +6926,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,22 +6938,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>557.2627364873769</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>927.0677766831639</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>754.5060651663889</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D37" t="n">
-        <v>588.6280723679117</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E37" t="n">
-        <v>418.8700686186489</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F37" t="n">
-        <v>242.1630145804051</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7126,19 +7126,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2150.679733297909</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1863.724225168339</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1591.69782075463</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1346.306066088043</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1118.886395402151</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7154,19 +7154,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7181,22 +7181,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7211,13 +7211,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.9960463903951</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>798.4343348736201</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>632.5563420751428</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>462.79833832588</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>286.0912842876362</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>120.5000093134637</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7330,13 +7330,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
         <v>1341.292728955479</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.60800300514</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2526.635886538673</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.493413722096</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.583628896541</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054836</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640435</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873074</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2665.685099163888</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>2665.685099163888</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3645.864765734194</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4474.17464056759</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5020.673426526186</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526186</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5020.673426526186</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4807.05875148274</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4547.836448799757</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.219498733583</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.364044144617</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.221580723928</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2952.935457023581</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>809.9073059481364</v>
+        <v>949.5782250957709</v>
       </c>
       <c r="C43" t="n">
-        <v>637.3455944313613</v>
+        <v>777.0165135789958</v>
       </c>
       <c r="D43" t="n">
-        <v>471.467601632884</v>
+        <v>611.1385207805185</v>
       </c>
       <c r="E43" t="n">
-        <v>442.7117975429398</v>
+        <v>441.3805170312558</v>
       </c>
       <c r="F43" t="n">
-        <v>266.0047435046961</v>
+        <v>264.673462993012</v>
       </c>
       <c r="G43" t="n">
-        <v>100.4134685305237</v>
+        <v>264.673462993012</v>
       </c>
       <c r="H43" t="n">
-        <v>100.4134685305237</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433324</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S43" t="n">
-        <v>2557.83170973132</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="T43" t="n">
-        <v>2311.952263309775</v>
+        <v>2451.62318245741</v>
       </c>
       <c r="U43" t="n">
-        <v>2033.519262562881</v>
+        <v>2173.190181710515</v>
       </c>
       <c r="V43" t="n">
-        <v>1746.563754433311</v>
+        <v>1886.234673580946</v>
       </c>
       <c r="W43" t="n">
-        <v>1474.537350019603</v>
+        <v>1614.208269167237</v>
       </c>
       <c r="X43" t="n">
-        <v>1229.145595353015</v>
+        <v>1368.81651450065</v>
       </c>
       <c r="Y43" t="n">
-        <v>1001.725924667124</v>
+        <v>1141.396843814758</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2336.308741984731</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1898.166269168154</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1462.256484342599</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1028.481739500894</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>600.6143099101018</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>199.2164785333649</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>96.73597668111519</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2481.810506693463</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2481.810506693463</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3461.990173263769</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4290.300048097165</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4836.798834055759</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4836.798834055759</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4616.731606928798</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4357.509304245815</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3994.892354179641</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3590.036899590675</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3170.894436169985</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2762.608312469639</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>998.0484328177145</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C46" t="n">
-        <v>998.0484328177145</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D46" t="n">
-        <v>832.170440019237</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E46" t="n">
-        <v>662.4124362699743</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F46" t="n">
-        <v>485.7053822317301</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160653</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064399</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2554.154217881911</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2308.274771460367</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2029.841770713472</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1742.886262583902</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1470.859858170194</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1225.468103503606</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>998.0484328177145</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>243.6685872558646</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8371,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>33.39342414375216</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.94960388475511</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>469.6822035600077</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,10 +8465,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294903</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,10 +9006,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>243.3352893400965</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9164,13 +9164,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>804.1687139657103</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10133,7 +10133,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,22 +10355,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>565.8642197954468</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,13 +10586,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10601,10 +10601,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11066,7 +11066,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>222.835035322636</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>267.5985112554895</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.9268490649757</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>267.5985112554898</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>113.8761173587624</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>175.9682474305296</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>177.9825081356765</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.412621479131395</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.1344859240869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>3.14686572942388</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>77.73307607587149</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>26.99333424003491</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1599680048248</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>120.4463752142719</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>6.388026562680752</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>65.48800580459063</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>184.7831561774887</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>63.43016517136714</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>5.132153028922517</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>508200.5640893302</v>
+        <v>512428.0048970886</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>508200.5640893302</v>
+        <v>513189.1649123972</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>493399.0096627598</v>
+        <v>514221.0116864709</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>493399.0096627597</v>
+        <v>514221.0116864709</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>500361.3495449814</v>
+        <v>514221.0116864709</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>514221.011686471</v>
+        <v>514221.0116864709</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>514221.0116864708</v>
+        <v>514221.0116864709</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>507258.6718042493</v>
+        <v>514221.011686471</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>493399.0096627599</v>
+        <v>514221.0116864709</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26314,25 @@
         <v>442321.5389095869</v>
       </c>
       <c r="C2" t="n">
-        <v>442321.5389095868</v>
+        <v>442321.5389095869</v>
       </c>
       <c r="D2" t="n">
-        <v>442321.5389095868</v>
+        <v>442321.5389095871</v>
       </c>
       <c r="E2" t="n">
-        <v>417057.215826633</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="F2" t="n">
-        <v>417057.215826633</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="G2" t="n">
-        <v>422942.2987515112</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="H2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="I2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="J2" t="n">
         <v>434657.5069133157</v>
@@ -26341,19 +26341,19 @@
         <v>434657.5069133157</v>
       </c>
       <c r="L2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="M2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="N2" t="n">
         <v>434657.5069133157</v>
       </c>
       <c r="O2" t="n">
-        <v>428772.4239884375</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="P2" t="n">
-        <v>417057.2158266329</v>
+        <v>434657.5069133157</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501596</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850504</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877235</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622472</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26418,22 @@
         <v>181432.3864604621</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>138489.2977955548</v>
       </c>
       <c r="D4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>26563.08616012788</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="F4" t="n">
-        <v>26563.08616012789</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="G4" t="n">
-        <v>26937.91713981299</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="H4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020272</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26445,7 +26445,7 @@
         <v>27684.07875020268</v>
       </c>
       <c r="L4" t="n">
-        <v>27684.07875020263</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
         <v>27684.07875020268</v>
@@ -26454,10 +26454,10 @@
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>27309.24777051758</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="P4" t="n">
-        <v>26563.08616012789</v>
+        <v>27684.07875020268</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764753</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024202</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319802</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764753</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>59273.06365219254</v>
       </c>
       <c r="C6" t="n">
-        <v>201464.3643119024</v>
+        <v>165288.2594110136</v>
       </c>
       <c r="D6" t="n">
-        <v>201464.3643119023</v>
+        <v>225824.1185658266</v>
       </c>
       <c r="E6" t="n">
-        <v>82619.76536682011</v>
+        <v>146876.855996888</v>
       </c>
       <c r="F6" t="n">
-        <v>316974.7873888576</v>
+        <v>329231.9652179378</v>
       </c>
       <c r="G6" t="n">
-        <v>314751.8257686057</v>
+        <v>329231.9652179378</v>
       </c>
       <c r="H6" t="n">
-        <v>316852.4345773571</v>
+        <v>329231.9652179378</v>
       </c>
       <c r="I6" t="n">
-        <v>329255.1895573204</v>
+        <v>329231.9652179378</v>
       </c>
       <c r="J6" t="n">
-        <v>218240.7242123302</v>
+        <v>218217.4998729477</v>
       </c>
       <c r="K6" t="n">
-        <v>329255.1895573205</v>
+        <v>276186.1105791655</v>
       </c>
       <c r="L6" t="n">
-        <v>329255.1895573204</v>
+        <v>319839.6634913154</v>
       </c>
       <c r="M6" t="n">
-        <v>133654.0102742527</v>
+        <v>177031.7942799502</v>
       </c>
       <c r="N6" t="n">
-        <v>329255.1895573205</v>
+        <v>329231.9652179378</v>
       </c>
       <c r="O6" t="n">
-        <v>325148.9401347219</v>
+        <v>329231.9652179379</v>
       </c>
       <c r="P6" t="n">
-        <v>316974.7873888575</v>
+        <v>329231.9652179379</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267139</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938355</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760646</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938355</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760646</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>175.8285651442894</v>
+        <v>113.7278999628232</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27430,22 +27430,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>137.0421411536992</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>261.1767494089935</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>230.1629605266714</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27625,7 +27625,7 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>113.7278999628233</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>100.2451026920198</v>
       </c>
       <c r="F7" t="n">
-        <v>122.9741048625005</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>267.9080130197351</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>290.5852353840268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28059,22 +28059,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>79.64395877249362</v>
+        <v>96.56253959275571</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-7.851904691651628e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>243.6685872558646</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>33.39342414375216</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>22.94960388475511</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>469.6822035600077</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,16 +35410,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294903</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,16 +35647,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>243.3352893400965</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,13 +35884,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>804.1687139657103</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157514</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908054</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,7 +36285,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36522,13 +36522,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36853,7 +36853,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37075,22 +37075,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>565.8642197954468</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37321,10 +37321,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908053</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37707,7 +37707,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37780,13 +37780,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>222.835035322636</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,13 +37944,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512984</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,16 +38017,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,7 +38181,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
